--- a/invoice_analysis_export.xlsx
+++ b/invoice_analysis_export.xlsx
@@ -469,7 +469,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>Status: Declined
-Reason: The invoice does not meet the policy guidelines for reimbursement of food expenses. The policy specifies a limit of ₹200 per meal, whereas the total amount on the invoice is ₹88.00, which is also not clearly broken down into individual meals. Additionally, the receipt is from a restaurant in Los Angeles, USA, whereas the company policy is for IAI Solution, an Indian company, and the policy specifies rupee amounts.</t>
+Reason: The invoice is for food and beverages, but the total amount is ₹88.00, which exceeds the allowed limit of ₹200 per the policy. Additionally, there is no indication that the meal was incurred while traveling for work or attending business meetings, which is a requirement for reimbursement.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>Status: Declined
-Reason: The invoice contains an item "Royal Stag Whisky" which is an alcoholic beverage, and as per the policy (Section 5.1, Restrictions), alcoholic beverages are not reimbursable.</t>
+Reason: The invoice includes Alcoholic beverages (Royal Stag Whisky) which are not reimbursable as per the policy (Section 5.1 Restrictions).</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -525,7 +525,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>Status: Declined
-Reason: The invoice is for Wines, which is an alcoholic beverage, and is therefore not reimbursable as per the policy (Section 5.1 Restrictions).</t>
+Reason: The invoice includes reimbursement for wines, which are explicitly restricted under the Food and Beverages category in the policy. Additionally, the total amount of ₹ 1100.4 exceeds the food allowance of ₹200 per meal set by the policy.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">

--- a/invoice_analysis_export.xlsx
+++ b/invoice_analysis_export.xlsx
@@ -469,7 +469,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>Status: Declined
-Reason: The invoice is for food and beverages, but the total amount is ₹88.00, which exceeds the allowed limit of ₹200 per the policy. Additionally, there is no indication that the meal was incurred while traveling for work or attending business meetings, which is a requirement for reimbursement.</t>
+Reason: The invoice is for food and beverages, but it does not meet the eligibility criteria as it is not related to work or business meetings. Additionally, the invoice exceeds the allowed limit of ₹200 per meal.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>Status: Declined
-Reason: The invoice includes Alcoholic beverages (Royal Stag Whisky) which are not reimbursable as per the policy (Section 5.1 Restrictions).</t>
+Reason: Alcoholic beverages (Royal Stag Whisky) are not reimbursable as per the policy (Section 5.1, Restrictions).</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -525,7 +525,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>Status: Declined
-Reason: The invoice includes reimbursement for wines, which are explicitly restricted under the Food and Beverages category in the policy. Additionally, the total amount of ₹ 1100.4 exceeds the food allowance of ₹200 per meal set by the policy.</t>
+Reason: The invoice includes wine, which is not reimburseble as per the policy.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
